--- a/data/trans_bre/P21D_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21D_5_R-Estudios-trans_bre.xlsx
@@ -555,7 +555,7 @@
         <v>0.1325017616698159</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.3378765922749663</v>
+        <v>0.3378765922749662</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.133878546058339</v>
+        <v>-1.017819605201504</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9315118722801244</v>
+        <v>0.9685903809310112</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.3460457048882524</v>
+        <v>0.3460457048882523</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5.028524952342346</v>
+        <v>5.028524952342345</v>
       </c>
     </row>
     <row r="8">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0475709841373658</v>
+        <v>0.05697170384988789</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7710261865231318</v>
+        <v>0.7873001277687312</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.393804636374459</v>
+        <v>-1.350499811167145</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4058211046895289</v>
+        <v>0.397142103181387</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1750254842472669</v>
+        <v>-0.124835426333112</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5801519678049954</v>
+        <v>-0.417376560670745</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5218061535649201</v>
+        <v>0.5095418461703982</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.278859646727338</v>
+        <v>8.118650856642249</v>
       </c>
     </row>
     <row r="16">
